--- a/biology/Neurosciences/Marie_Vidailhet/Marie_Vidailhet.xlsx
+++ b/biology/Neurosciences/Marie_Vidailhet/Marie_Vidailhet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie Vidailhet est une neurologue et professeure de neurologie française née à Toulouse.
 Elle a mené des études sur la physiopathologie de mouvements anormaux (dystonies, tremblements), focalisant sur les circuits cerebello-thalamo-cortical[Quoi ?] etstriato-cortical[Quoi ?] . Elle reçoit le prix Prix Mémain-Pelletier, décerné par l'Académie des Sciences, en 2021.
@@ -512,9 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marie Vidailhet est née à Toulouse[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie Vidailhet est née à Toulouse.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Parcours professionnel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lors de son entrée dans les études et alors que Marie Vidailhet se prédestine à devenir ingénieure, elle choisit médecine par défi et se spécialise en neurologie lors de son intégration au sein de ce service dans lequel elle dit y avoir un « coup de foudre »[2]. Elle exerce sur la région parisienne dans un premier temps à l'hôpital Saint-Antoine (de 1987 à 1997) avant de rejoindre l'hôpital de la Pitié-Salpêtrière et son Institut du cerveau et de la moelle épinière avec son équipe depuis 1997[2],[3]. Ses activités neurologiques en tant que praticienne l'amènent à prendre des postes importants devenant ainsi vice-Présidente du conseil scientifique de 2006 à 2013 et cheffe de service de la Fédération de neurologie, tout en dispensant des cours universitaires[3].
-Marie Vidailhet est membre du comité éditorial de la revue scientifique médicale The Lancet Neurology[4]. En 2002, elle fait partie des experts ayant collaboré à la Revue de Médecine interne, remerciés par le comité de rédaction pour « la rigueur et l’objectivité de leurs analyses, faites
-avec compétence et efficacité dans les délais requis »[5].
-Marie Vidailhet est régulièrement interrogée ou citée par les médias francophones[6],[7],[8],[9],[10] en raison de son expertise des troubles du mouvement[11],[12]. En 2011, elle co-signe avec les Pr Yves Agid, André Nieoullon et Pierre Pollak une tribune dans Le Monde plaidant pour la mise en place d'un plan national Parkinson[13]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors de son entrée dans les études et alors que Marie Vidailhet se prédestine à devenir ingénieure, elle choisit médecine par défi et se spécialise en neurologie lors de son intégration au sein de ce service dans lequel elle dit y avoir un « coup de foudre ». Elle exerce sur la région parisienne dans un premier temps à l'hôpital Saint-Antoine (de 1987 à 1997) avant de rejoindre l'hôpital de la Pitié-Salpêtrière et son Institut du cerveau et de la moelle épinière avec son équipe depuis 1997,. Ses activités neurologiques en tant que praticienne l'amènent à prendre des postes importants devenant ainsi vice-Présidente du conseil scientifique de 2006 à 2013 et cheffe de service de la Fédération de neurologie, tout en dispensant des cours universitaires.
+Marie Vidailhet est membre du comité éditorial de la revue scientifique médicale The Lancet Neurology. En 2002, elle fait partie des experts ayant collaboré à la Revue de Médecine interne, remerciés par le comité de rédaction pour « la rigueur et l’objectivité de leurs analyses, faites
+avec compétence et efficacité dans les délais requis ».
+Marie Vidailhet est régulièrement interrogée ou citée par les médias francophones en raison de son expertise des troubles du mouvement,. En 2011, elle co-signe avec les Pr Yves Agid, André Nieoullon et Pierre Pollak une tribune dans Le Monde plaidant pour la mise en place d'un plan national Parkinson. 
 </t>
         </is>
       </c>
@@ -579,13 +595,15 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Prix
-Elue membre correspondant de l'Académie nationale de Médecine en 2014[14], puis élue titulaire en 2023[15].
-Prix Mémain-Pelletier Fondation de l'Institut de France 2021[16],[17] décerné par l'Académie des Sciences pour ses travaux sur la physiopathologie des mouvements anormaux[12]. A cette occasion, The Lancet dresse son portrait[1].
-Elue membre honoraire 2022 de l’International Parkinson and Movement Disorder Society[18], pour ses travaux sur la maladie de Parkinson et les troubles du mouvement.
-Décorations
-2011 :  Chevalière de la Légion d'honneur[19].
-2023 :  Officière de l'ordre national du Mérite[20]</t>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Elue membre correspondant de l'Académie nationale de Médecine en 2014, puis élue titulaire en 2023.
+Prix Mémain-Pelletier Fondation de l'Institut de France 2021, décerné par l'Académie des Sciences pour ses travaux sur la physiopathologie des mouvements anormaux. A cette occasion, The Lancet dresse son portrait.
+Elue membre honoraire 2022 de l’International Parkinson and Movement Disorder Society, pour ses travaux sur la maladie de Parkinson et les troubles du mouvement.</t>
         </is>
       </c>
     </row>
@@ -610,10 +628,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Décorations</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2011 :  Chevalière de la Légion d'honneur.
+2023 :  Officière de l'ordre national du Mérite</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marie_Vidailhet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie_Vidailhet</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Marie Vidailhet, « La toxine botulique en Neurologie », La Revue de Médecine Interne, vol. 26, no 7,‎ 1er juillet 2005, p. 531–533 (ISSN 0248-8663, DOI 10.1016/j.revmed.2005.04.035, lire en ligne, consulté le 31 août 2023)
 Luc Defebvre, Marc Vérin et Carole Fumat (préf. Marie Vidailhet), La maladie de Parkinson, Elsevier Masson, coll. « Monographies de neurologie », 2015 (ISBN 978-2-294-74232-3)</t>
